--- a/biology/Médecine/Freinectomie/Freinectomie.xlsx
+++ b/biology/Médecine/Freinectomie/Freinectomie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une freinectomie est une opération chirurgicale qui consiste en l'ablation des freins parodontaux et fibreux anormaux[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une freinectomie est une opération chirurgicale qui consiste en l'ablation des freins parodontaux et fibreux anormaux.
 Les freins sont des structures anatomiques dépourvues de fibres musculaires et constituées essentiellement d’un réseau très dense de fibres conjonctives ainsi que de fibres oxytalanes et de conjonctif lâche.
-Les freins labiaux de par leur insertion peuvent générer l’apparition d’un certain nombre de problèmes en rapport avec différents domaines odontologiques[2].
+Les freins labiaux de par leur insertion peuvent générer l’apparition d’un certain nombre de problèmes en rapport avec différents domaines odontologiques.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Déroulement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'opération se déroule sous anesthésie locale, deux à trois piqûres :
 dans le frein et de chaque côté de celui-ci
